--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H503"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13533,6 +13533,32 @@
         <v>5.96</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B504" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C504" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="D504" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E504" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F504" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="H504" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H504"/>
+  <dimension ref="A1:H505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13559,6 +13559,32 @@
         <v>5.89</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B505" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="C505" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D505" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E505" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F505" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="H505" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H505"/>
+  <dimension ref="A1:H506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13585,6 +13585,32 @@
         <v>5.89</v>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B506" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C506" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D506" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E506" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F506" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H506" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H506"/>
+  <dimension ref="A1:H507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13611,6 +13611,32 @@
         <v>5.88</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B507" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C507" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D507" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E507" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="F507" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="G507" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="H507" t="n">
+        <v>5.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H507"/>
+  <dimension ref="A1:H508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13637,6 +13637,32 @@
         <v>5.83</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B508" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C508" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D508" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E508" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F508" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H508" t="n">
+        <v>5.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H508"/>
+  <dimension ref="A1:H509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13663,6 +13663,32 @@
         <v>5.83</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B509" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C509" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="D509" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="E509" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F509" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="H509" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H509"/>
+  <dimension ref="A1:H510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13689,6 +13689,32 @@
         <v>5.88</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B510" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="C510" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="D510" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E510" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F510" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="H510" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H510"/>
+  <dimension ref="A1:H511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13715,6 +13715,32 @@
         <v>5.91</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B511" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C511" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="D511" t="n">
+        <v>7</v>
+      </c>
+      <c r="E511" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="F511" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="H511" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H511"/>
+  <dimension ref="A1:H512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13741,6 +13741,32 @@
         <v>5.92</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B512" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C512" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="D512" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E512" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="F512" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="G512" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="H512" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H512"/>
+  <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13767,6 +13767,32 @@
         <v>5.95</v>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B513" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C513" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="D513" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="E513" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F513" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="H513" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H513"/>
+  <dimension ref="A1:H514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13793,6 +13793,32 @@
         <v>5.98</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B514" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C514" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D514" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="E514" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F514" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="H514" t="n">
+        <v>6.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H514"/>
+  <dimension ref="A1:H515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13819,6 +13819,32 @@
         <v>6.01</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B515" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="C515" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D515" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="E515" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F515" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="G515" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="H515" t="n">
+        <v>6.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H515"/>
+  <dimension ref="A1:H516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13845,6 +13845,32 @@
         <v>6.03</v>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B516" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C516" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D516" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E516" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F516" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="G516" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H516" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H516"/>
+  <dimension ref="A1:H517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13871,6 +13871,32 @@
         <v>6.11</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B517" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="C517" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D517" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E517" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F517" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="G517" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="H517" t="n">
+        <v>6.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H517"/>
+  <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13897,6 +13897,32 @@
         <v>6.14</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B518" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C518" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D518" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E518" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="F518" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G518" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="H518" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H518"/>
+  <dimension ref="A1:H519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13923,6 +13923,32 @@
         <v>6.2</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B519" t="n">
+        <v>8</v>
+      </c>
+      <c r="C519" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D519" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E519" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F519" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="G519" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="H519" t="n">
+        <v>6.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H519"/>
+  <dimension ref="A1:H520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13949,6 +13949,32 @@
         <v>6.24</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B520" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="C520" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D520" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E520" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="F520" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="G520" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H520" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H520"/>
+  <dimension ref="A1:H521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13975,6 +13975,32 @@
         <v>6.22</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B521" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="C521" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D521" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E521" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F521" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="G521" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="H521" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H521"/>
+  <dimension ref="A1:H522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14001,6 +14001,32 @@
         <v>6.26</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B522" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C522" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D522" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E522" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F522" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="G522" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H522" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H522"/>
+  <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14027,6 +14027,32 @@
         <v>6.33</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B523" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C523" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="D523" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E523" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F523" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="G523" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="H523" t="n">
+        <v>6.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H523"/>
+  <dimension ref="A1:H524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14053,6 +14053,32 @@
         <v>6.36</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B524" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C524" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="D524" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E524" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F524" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="G524" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H524" t="n">
+        <v>6.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H524"/>
+  <dimension ref="A1:H525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14055,27 +14055,53 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B524" t="n">
-        <v>7.79</v>
+        <v>7.8</v>
       </c>
       <c r="C524" t="n">
-        <v>7.85</v>
+        <v>7.81</v>
       </c>
       <c r="D524" t="n">
-        <v>7.47</v>
+        <v>7.42</v>
       </c>
       <c r="E524" t="n">
-        <v>7.19</v>
+        <v>7.2</v>
       </c>
       <c r="F524" t="n">
-        <v>6.73</v>
+        <v>6.8</v>
       </c>
       <c r="G524" t="n">
         <v>6.5</v>
       </c>
       <c r="H524" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B525" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C525" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="D525" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E525" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F525" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="G525" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H525" t="n">
         <v>6.44</v>
       </c>
     </row>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H525"/>
+  <dimension ref="A1:H526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14105,6 +14105,32 @@
         <v>6.44</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B526" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C526" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="D526" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E526" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F526" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="G526" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="H526" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H526"/>
+  <dimension ref="A1:H527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14131,6 +14131,32 @@
         <v>6.47</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B527" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C527" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D527" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E527" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="F527" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="G527" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="H527" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H527"/>
+  <dimension ref="A1:H528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14157,6 +14157,32 @@
         <v>6.45</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B528" t="n">
+        <v>7</v>
+      </c>
+      <c r="C528" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D528" t="n">
+        <v>7</v>
+      </c>
+      <c r="E528" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="F528" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="G528" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="H528" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H528"/>
+  <dimension ref="A1:H529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14183,6 +14183,32 @@
         <v>6.32</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B529" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C529" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="D529" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="E529" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F529" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="G529" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H529" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H529"/>
+  <dimension ref="A1:H531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14185,28 +14185,80 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B529" t="n">
         <v>6.9</v>
       </c>
       <c r="C529" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D529" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E529" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="F529" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="G529" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H529" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B530" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C530" t="n">
         <v>6.75</v>
       </c>
-      <c r="D529" t="n">
+      <c r="D530" t="n">
         <v>6.76</v>
       </c>
-      <c r="E529" t="n">
+      <c r="E530" t="n">
         <v>6.44</v>
       </c>
-      <c r="F529" t="n">
+      <c r="F530" t="n">
         <v>6.23</v>
       </c>
-      <c r="G529" t="n">
+      <c r="G530" t="n">
         <v>6.1</v>
       </c>
-      <c r="H529" t="n">
+      <c r="H530" t="n">
         <v>6.13</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B531" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C531" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="D531" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E531" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F531" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="G531" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H531" t="n">
+        <v>6.06</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H531"/>
+  <dimension ref="A1:H532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14261,6 +14261,32 @@
         <v>6.06</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B532" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="C532" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="D532" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="E532" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F532" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="G532" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="H532" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H532"/>
+  <dimension ref="A1:H533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14287,6 +14287,32 @@
         <v>6.12</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B533" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="C533" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D533" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E533" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="F533" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G533" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="H533" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H533"/>
+  <dimension ref="A1:H534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14313,6 +14313,32 @@
         <v>6.2</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B534" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="C534" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D534" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E534" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F534" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G534" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="H534" t="n">
+        <v>6.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H534"/>
+  <dimension ref="A1:H535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14339,6 +14339,32 @@
         <v>6.29</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B535" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="C535" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="D535" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E535" t="n">
+        <v>7</v>
+      </c>
+      <c r="F535" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="G535" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="H535" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H535"/>
+  <dimension ref="A1:H536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14365,6 +14365,32 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B536" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C536" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D536" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E536" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F536" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="G536" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="H536" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H536"/>
+  <dimension ref="A1:H537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14391,6 +14391,32 @@
         <v>6.57</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B537" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="C537" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D537" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="E537" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F537" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="G537" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="H537" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H537"/>
+  <dimension ref="A1:H538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14417,6 +14417,32 @@
         <v>6.59</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B538" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C538" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="D538" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E538" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="F538" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="G538" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="H538" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H538"/>
+  <dimension ref="A1:H539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14443,6 +14443,32 @@
         <v>6.55</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B539" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="C539" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="D539" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E539" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="F539" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="G539" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="H539" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H539"/>
+  <dimension ref="A1:H540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14469,6 +14469,32 @@
         <v>6.56</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B540" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="C540" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="D540" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E540" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="F540" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="G540" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="H540" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H540"/>
+  <dimension ref="A1:H541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14495,6 +14495,32 @@
         <v>6.6</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B541" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="C541" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D541" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E541" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F541" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="G541" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="H541" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H541"/>
+  <dimension ref="A1:H542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14521,6 +14521,32 @@
         <v>6.59</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B542" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="C542" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D542" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="E542" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="F542" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="G542" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="H542" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H542"/>
+  <dimension ref="A1:H543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14547,6 +14547,32 @@
         <v>6.63</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B543" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C543" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D543" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="E543" t="n">
+        <v>7</v>
+      </c>
+      <c r="F543" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="G543" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="H543" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H543"/>
+  <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14573,6 +14573,32 @@
         <v>6.65</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B544" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C544" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="D544" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="E544" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F544" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G544" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="H544" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H544"/>
+  <dimension ref="A1:H545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14599,6 +14599,32 @@
         <v>6.74</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B545" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C545" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="D545" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="E545" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="F545" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="G545" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="H545" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H545"/>
+  <dimension ref="A1:H546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14625,6 +14625,32 @@
         <v>6.76</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B546" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C546" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D546" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E546" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F546" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G546" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="H546" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H546"/>
+  <dimension ref="A1:H547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14651,6 +14651,32 @@
         <v>6.73</v>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B547" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C547" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="D547" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="E547" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F547" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="G547" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="H547" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H547"/>
+  <dimension ref="A1:H548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14677,6 +14677,32 @@
         <v>6.71</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B548" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="C548" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D548" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E548" t="n">
+        <v>7</v>
+      </c>
+      <c r="F548" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G548" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="H548" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H548"/>
+  <dimension ref="A1:H549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14703,6 +14703,32 @@
         <v>6.69</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B549" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="C549" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D549" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="E549" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F549" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G549" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="H549" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H549"/>
+  <dimension ref="A1:H550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14729,6 +14729,32 @@
         <v>6.7</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B550" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C550" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="D550" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E550" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="F550" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G550" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H550" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H550"/>
+  <dimension ref="A1:H551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14755,6 +14755,32 @@
         <v>6.69</v>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B551" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="C551" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D551" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E551" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="F551" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="G551" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H551" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H551"/>
+  <dimension ref="A1:H552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14781,6 +14781,32 @@
         <v>6.69</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B552" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="C552" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D552" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E552" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F552" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G552" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="H552" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H552"/>
+  <dimension ref="A1:H553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14807,6 +14807,32 @@
         <v>6.71</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B553" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="C553" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D553" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E553" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F553" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="G553" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="H553" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H553"/>
+  <dimension ref="A1:H554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14833,6 +14833,32 @@
         <v>6.78</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B554" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C554" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="D554" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="E554" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="F554" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="G554" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="H554" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H554"/>
+  <dimension ref="A1:H555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14859,6 +14859,32 @@
         <v>6.9</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B555" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="C555" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D555" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E555" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F555" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="G555" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="H555" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H555"/>
+  <dimension ref="A1:H556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14885,6 +14885,32 @@
         <v>6.9</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B556" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C556" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="D556" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E556" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="F556" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="G556" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="H556" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H556"/>
+  <dimension ref="A1:H557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14911,6 +14911,32 @@
         <v>6.86</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B557" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="C557" t="n">
+        <v>8</v>
+      </c>
+      <c r="D557" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E557" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F557" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="G557" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="H557" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H557"/>
+  <dimension ref="A1:H558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14937,6 +14937,32 @@
         <v>6.78</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B558" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="C558" t="n">
+        <v>8</v>
+      </c>
+      <c r="D558" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="E558" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F558" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="G558" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H558" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H558"/>
+  <dimension ref="A1:H559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14963,6 +14963,32 @@
         <v>6.77</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B559" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="C559" t="n">
+        <v>8</v>
+      </c>
+      <c r="D559" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="E559" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="F559" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="G559" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H559" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H559"/>
+  <dimension ref="A1:H560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14989,6 +14989,32 @@
         <v>6.76</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B560" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C560" t="n">
+        <v>8</v>
+      </c>
+      <c r="D560" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E560" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F560" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="G560" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="H560" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H560"/>
+  <dimension ref="A1:H561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15015,6 +15015,32 @@
         <v>6.77</v>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B561" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="C561" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D561" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E561" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="F561" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="G561" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="H561" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H561"/>
+  <dimension ref="A1:H562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15041,6 +15041,32 @@
         <v>6.76</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B562" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="C562" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D562" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="E562" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F562" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G562" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="H562" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15067,6 +15067,32 @@
         <v>6.71</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B563" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="C563" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D563" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="E563" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F563" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="G563" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="H563" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H563"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15093,6 +15093,32 @@
         <v>6.63</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B564" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="C564" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="D564" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="E564" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="F564" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="G564" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="H564" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15119,6 +15119,32 @@
         <v>6.59</v>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B565" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="C565" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D565" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E565" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F565" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="G565" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="H565" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H565"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15145,6 +15145,32 @@
         <v>6.48</v>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B566" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C566" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="D566" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E566" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F566" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="G566" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="H566" t="n">
+        <v>6.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15171,6 +15171,32 @@
         <v>6.44</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B567" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C567" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D567" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="E567" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="F567" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="G567" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="H567" t="n">
+        <v>6.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H567"/>
+  <dimension ref="A1:H568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15197,6 +15197,32 @@
         <v>6.44</v>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B568" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="C568" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D568" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E568" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F568" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G568" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="H568" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H568"/>
+  <dimension ref="A1:H569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15223,6 +15223,32 @@
         <v>6.43</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B569" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="C569" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D569" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E569" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F569" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="G569" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="H569" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H569"/>
+  <dimension ref="A1:H570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15249,6 +15249,32 @@
         <v>6.4</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B570" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="C570" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D570" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E570" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F570" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="G570" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="H570" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H570"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15275,6 +15275,58 @@
         <v>6.4</v>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B571" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="C571" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D571" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E571" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F571" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="G571" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H571" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B572" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="C572" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D572" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="E572" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F572" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="G572" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="H572" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15327,6 +15327,32 @@
         <v>6.39</v>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B573" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="C573" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D573" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E573" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F573" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="G573" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="H573" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H573"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15353,6 +15353,32 @@
         <v>6.39</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B574" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="C574" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="D574" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E574" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F574" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="G574" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H574" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H574"/>
+  <dimension ref="A1:H575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15379,6 +15379,32 @@
         <v>6.42</v>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B575" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="C575" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D575" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E575" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="F575" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="G575" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="H575" t="n">
+        <v>6.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H575"/>
+  <dimension ref="A1:H577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15405,6 +15405,58 @@
         <v>6.44</v>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B576" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C576" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D576" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E576" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F576" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G576" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="H576" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B577" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="C577" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="D577" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E577" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="F577" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G577" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="H577" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H577"/>
+  <dimension ref="A1:H578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15457,6 +15457,32 @@
         <v>6.52</v>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B578" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="C578" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D578" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E578" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F578" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G578" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H578" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H578"/>
+  <dimension ref="A1:H579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15483,6 +15483,32 @@
         <v>6.56</v>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B579" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="C579" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="D579" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="E579" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F579" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G579" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="H579" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H579"/>
+  <dimension ref="A1:H580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15509,6 +15509,32 @@
         <v>6.59</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B580" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="C580" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D580" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E580" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F580" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="G580" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="H580" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H580"/>
+  <dimension ref="A1:H583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15535,6 +15535,84 @@
         <v>6.65</v>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B581" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="C581" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="D581" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E581" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F581" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="G581" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="H581" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B582" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="C582" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D582" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E582" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F582" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="G582" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="H582" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B583" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="C583" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D583" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E583" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F583" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="G583" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H583" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H583"/>
+  <dimension ref="A1:H584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15613,6 +15613,32 @@
         <v>6.56</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B584" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="C584" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="D584" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E584" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="F584" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G584" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="H584" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H584"/>
+  <dimension ref="A1:H585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15639,6 +15639,32 @@
         <v>6.55</v>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B585" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="C585" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D585" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E585" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F585" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="G585" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="H585" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H585"/>
+  <dimension ref="A1:H586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15665,6 +15665,32 @@
         <v>6.47</v>
       </c>
     </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B586" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="C586" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D586" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E586" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="F586" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="G586" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="H586" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H586"/>
+  <dimension ref="A1:H587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15691,6 +15691,32 @@
         <v>6.38</v>
       </c>
     </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B587" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="C587" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="D587" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="E587" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="F587" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="G587" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="H587" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H587"/>
+  <dimension ref="A1:H588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15717,6 +15717,32 @@
         <v>6.4</v>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B588" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C588" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D588" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="E588" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="F588" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G588" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="H588" t="n">
+        <v>6.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H588"/>
+  <dimension ref="A1:H589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15743,6 +15743,32 @@
         <v>6.46</v>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B589" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="C589" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="D589" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E589" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F589" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="G589" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="H589" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H589"/>
+  <dimension ref="A1:H590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15769,6 +15769,32 @@
         <v>6.48</v>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B590" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="C590" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D590" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E590" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F590" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="G590" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="H590" t="n">
+        <v>6.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H590"/>
+  <dimension ref="A1:H591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15795,6 +15795,32 @@
         <v>6.46</v>
       </c>
     </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B591" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="C591" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D591" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E591" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="F591" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="G591" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H591" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H591"/>
+  <dimension ref="A1:H592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15821,6 +15821,32 @@
         <v>6.38</v>
       </c>
     </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B592" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C592" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D592" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E592" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F592" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="G592" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="H592" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H592"/>
+  <dimension ref="A1:H593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15847,6 +15847,32 @@
         <v>6.38</v>
       </c>
     </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B593" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="C593" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="D593" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="E593" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F593" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="G593" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="H593" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H593"/>
+  <dimension ref="A1:H594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15873,6 +15873,32 @@
         <v>6.31</v>
       </c>
     </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B594" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="C594" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D594" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E594" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="F594" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="G594" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="H594" t="n">
+        <v>6.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H594"/>
+  <dimension ref="A1:H595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15899,6 +15899,32 @@
         <v>6.31</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B595" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="C595" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D595" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E595" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F595" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="G595" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="H595" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H595"/>
+  <dimension ref="A1:H596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15925,6 +15925,32 @@
         <v>6.4</v>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B596" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="C596" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="D596" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="E596" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F596" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G596" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H596" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H596"/>
+  <dimension ref="A1:H597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15951,6 +15951,32 @@
         <v>6.41</v>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B597" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="C597" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D597" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E597" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F597" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="G597" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="H597" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H597"/>
+  <dimension ref="A1:H598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15977,6 +15977,32 @@
         <v>6.47</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B598" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="C598" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="D598" t="n">
+        <v>7</v>
+      </c>
+      <c r="E598" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F598" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="G598" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="H598" t="n">
+        <v>6.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H598"/>
+  <dimension ref="A1:H599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16003,6 +16003,32 @@
         <v>6.61</v>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B599" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="C599" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="D599" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="E599" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F599" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G599" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="H599" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H599"/>
+  <dimension ref="A1:H600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16029,6 +16029,32 @@
         <v>6.71</v>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B600" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="C600" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D600" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="E600" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F600" t="n">
+        <v>7</v>
+      </c>
+      <c r="G600" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="H600" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H600"/>
+  <dimension ref="A1:H601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16055,6 +16055,32 @@
         <v>6.81</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B601" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C601" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="D601" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E601" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="F601" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="G601" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H601" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H601"/>
+  <dimension ref="A1:H602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16081,6 +16081,32 @@
         <v>6.78</v>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B602" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="C602" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="D602" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E602" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F602" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G602" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H602" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H602"/>
+  <dimension ref="A1:H604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16107,6 +16107,58 @@
         <v>6.67</v>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B603" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C603" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D603" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="E603" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="F603" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="G603" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="H603" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B604" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="C604" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D604" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="E604" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F604" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="G604" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="H604" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H604"/>
+  <dimension ref="A1:H605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16159,6 +16159,32 @@
         <v>6.72</v>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B605" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="C605" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="D605" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E605" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F605" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="G605" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="H605" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H605"/>
+  <dimension ref="A1:H606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16185,6 +16185,32 @@
         <v>6.76</v>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B606" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="C606" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D606" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E606" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="F606" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="G606" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="H606" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H606"/>
+  <dimension ref="A1:H607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16211,6 +16211,32 @@
         <v>6.79</v>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B607" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C607" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="D607" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E607" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="F607" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="G607" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H607" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H607"/>
+  <dimension ref="A1:H608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16237,6 +16237,32 @@
         <v>6.76</v>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B608" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="C608" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="D608" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E608" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="F608" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G608" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H608" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H608"/>
+  <dimension ref="A1:H609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16263,6 +16263,32 @@
         <v>6.77</v>
       </c>
     </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B609" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C609" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="D609" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E609" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F609" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G609" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H609" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H609"/>
+  <dimension ref="A1:H610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16289,6 +16289,32 @@
         <v>6.76</v>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B610" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="C610" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="D610" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E610" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F610" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G610" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="H610" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H610"/>
+  <dimension ref="A1:H611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16315,6 +16315,32 @@
         <v>6.72</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B611" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="C611" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D611" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E611" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="F611" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="G611" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="H611" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H611"/>
+  <dimension ref="A1:H612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16341,6 +16341,32 @@
         <v>6.72</v>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B612" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="C612" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D612" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E612" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F612" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="G612" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="H612" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H612"/>
+  <dimension ref="A1:H613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16367,6 +16367,32 @@
         <v>6.59</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B613" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="C613" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D613" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="E613" t="n">
+        <v>7</v>
+      </c>
+      <c r="F613" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="G613" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="H613" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H613"/>
+  <dimension ref="A1:H614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16393,6 +16393,32 @@
         <v>6.62</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B614" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C614" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D614" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E614" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="F614" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="G614" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H614" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H614"/>
+  <dimension ref="A1:H615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16419,6 +16419,32 @@
         <v>6.7</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B615" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="C615" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="D615" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="E615" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="F615" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="G615" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="H615" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H615"/>
+  <dimension ref="A1:H616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16445,6 +16445,32 @@
         <v>6.68</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B616" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C616" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="D616" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E616" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F616" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="G616" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="H616" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H616"/>
+  <dimension ref="A1:H618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16471,6 +16471,58 @@
         <v>6.71</v>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B617" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C617" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D617" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="E617" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F617" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="G617" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="H617" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B618" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="C618" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="D618" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E618" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F618" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="G618" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="H618" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H618"/>
+  <dimension ref="A1:H619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16523,6 +16523,32 @@
         <v>6.75</v>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B619" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C619" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="D619" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E619" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F619" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="G619" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="H619" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H619"/>
+  <dimension ref="A1:H620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16549,6 +16549,32 @@
         <v>6.68</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B620" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="C620" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D620" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E620" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F620" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="G620" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="H620" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H620"/>
+  <dimension ref="A1:H621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16575,6 +16575,32 @@
         <v>6.65</v>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B621" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="C621" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D621" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E621" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F621" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G621" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="H621" t="n">
+        <v>6.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H621"/>
+  <dimension ref="A1:H622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16601,6 +16601,32 @@
         <v>6.66</v>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B622" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="C622" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D622" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E622" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F622" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="G622" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="H622" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H622"/>
+  <dimension ref="A1:H623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16627,6 +16627,32 @@
         <v>6.7</v>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B623" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="C623" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D623" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="E623" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F623" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G623" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="H623" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H623"/>
+  <dimension ref="A1:H624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16653,6 +16653,32 @@
         <v>6.76</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B624" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="C624" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D624" t="n">
+        <v>8</v>
+      </c>
+      <c r="E624" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F624" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="G624" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H624" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H624"/>
+  <dimension ref="A1:H625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16679,6 +16679,32 @@
         <v>6.82</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B625" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="C625" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D625" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E625" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F625" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="G625" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="H625" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H625"/>
+  <dimension ref="A1:H626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16705,6 +16705,32 @@
         <v>6.9</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B626" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="C626" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="D626" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E626" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="F626" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="G626" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H626" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H626"/>
+  <dimension ref="A1:H627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16731,6 +16731,32 @@
         <v>6.97</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B627" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="C627" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D627" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E627" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F627" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="G627" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="H627" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H627"/>
+  <dimension ref="A1:H628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16757,6 +16757,32 @@
         <v>6.91</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B628" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C628" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D628" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E628" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="F628" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="G628" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="H628" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H628"/>
+  <dimension ref="A1:H629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16783,6 +16783,32 @@
         <v>6.96</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B629" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C629" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D629" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E629" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F629" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="G629" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="H629" t="n">
+        <v>6.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H629"/>
+  <dimension ref="A1:H630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16809,6 +16809,32 @@
         <v>6.92</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B630" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C630" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D630" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E630" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="F630" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="G630" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H630" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H630"/>
+  <dimension ref="A1:H631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16835,6 +16835,32 @@
         <v>6.85</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B631" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="C631" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D631" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E631" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F631" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="G631" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="H631" t="n">
+        <v>6.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H631"/>
+  <dimension ref="A1:H632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16861,6 +16861,32 @@
         <v>6.87</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B632" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="C632" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D632" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E632" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F632" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="G632" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H632" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H632"/>
+  <dimension ref="A1:H633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16887,6 +16887,32 @@
         <v>6.83</v>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B633" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="C633" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D633" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="E633" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="F633" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="G633" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="H633" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H633"/>
+  <dimension ref="A1:H634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16913,6 +16913,32 @@
         <v>6.78</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B634" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="C634" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D634" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="E634" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F634" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="G634" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="H634" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H634"/>
+  <dimension ref="A1:H635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16939,6 +16939,32 @@
         <v>6.79</v>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B635" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="C635" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D635" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E635" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F635" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="G635" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="H635" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H635"/>
+  <dimension ref="A1:H636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16965,6 +16965,32 @@
         <v>6.73</v>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B636" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="C636" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D636" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E636" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F636" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G636" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="H636" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H636"/>
+  <dimension ref="A1:H637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16991,6 +16991,32 @@
         <v>6.6</v>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B637" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="C637" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D637" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="E637" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F637" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G637" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H637" t="n">
+        <v>6.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:H639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17017,6 +17017,58 @@
         <v>6.64</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B638" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="C638" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="D638" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E638" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F638" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G638" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H638" t="n">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B639" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C639" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="D639" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="E639" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="F639" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G639" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H639" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H639"/>
+  <dimension ref="A1:H640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17069,6 +17069,32 @@
         <v>6.62</v>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B640" t="n">
+        <v>11</v>
+      </c>
+      <c r="C640" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="D640" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="E640" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F640" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="G640" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="H640" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H640"/>
+  <dimension ref="A1:H642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17095,6 +17095,58 @@
         <v>6.6</v>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B641" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="C641" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="D641" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E641" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="F641" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="G641" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="H641" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B642" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="C642" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="D642" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E642" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F642" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="G642" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="H642" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Chile.xlsx
+++ b/Bonds_Chile.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H642"/>
+  <dimension ref="A1:H643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17147,6 +17147,32 @@
         <v>6.58</v>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B643" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="C643" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D643" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="E643" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="F643" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="G643" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="H643" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
